--- a/100runs/run076/NotionalETEOutput076.xlsx
+++ b/100runs/run076/NotionalETEOutput076.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,19 +52,28 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_131.MISSILE_HIGHWIND_131</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_430.MISSILE_HELLMASKER_430</t>
+    <t>MISSILE_HIGHWIND_223.MISSILE_HIGHWIND_223</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_73.MISSILE_SOMERSAULT_73</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_275.MISSILE_BRAVER_275</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +480,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G2">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H2">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I2">
-        <v>-1543.282447119326</v>
+        <v>1114860.471788339</v>
       </c>
       <c r="J2">
-        <v>2205.391208209748</v>
+        <v>4843220.475198027</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.114113193</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +515,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G3">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H3">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I3">
-        <v>-1512.813942257429</v>
+        <v>1114890.085761278</v>
       </c>
       <c r="J3">
-        <v>2151.743315729968</v>
+        <v>4843171.823637913</v>
       </c>
       <c r="K3">
-        <v>355.8877179812322</v>
+        <v>3984667.9096319</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +550,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G4">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H4">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I4">
-        <v>-1481.595178493818</v>
+        <v>1114920.428951056</v>
       </c>
       <c r="J4">
-        <v>2098.095423250189</v>
+        <v>4843123.172077797</v>
       </c>
       <c r="K4">
-        <v>694.0292430131855</v>
+        <v>3984956.556513496</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +585,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G5">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H5">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I5">
-        <v>-1449.607681393264</v>
+        <v>1114951.519313967</v>
       </c>
       <c r="J5">
-        <v>2044.44753077041</v>
+        <v>4843074.520517684</v>
       </c>
       <c r="K5">
-        <v>1014.424575095862</v>
+        <v>3985230.05475798</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G6">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H6">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I6">
-        <v>-1416.832521604567</v>
+        <v>1114983.375248462</v>
       </c>
       <c r="J6">
-        <v>1990.799638290631</v>
+        <v>4843025.86895757</v>
       </c>
       <c r="K6">
-        <v>1317.073714229261</v>
+        <v>3985488.404365353</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +655,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G7">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H7">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I7">
-        <v>-1383.250303658666</v>
+        <v>1115016.015606037</v>
       </c>
       <c r="J7">
-        <v>1937.151745810852</v>
+        <v>4842977.217397455</v>
       </c>
       <c r="K7">
-        <v>1601.976660413383</v>
+        <v>3985731.605335615</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +690,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G8">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H8">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I8">
-        <v>-1348.841154490922</v>
+        <v>1115049.459702389</v>
       </c>
       <c r="J8">
-        <v>1883.503853331073</v>
+        <v>4842928.56583734</v>
       </c>
       <c r="K8">
-        <v>1869.133413648227</v>
+        <v>3985959.657668764</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +725,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G9">
-        <v>-118.767891817087</v>
+        <v>4841121.87083411</v>
       </c>
       <c r="H9">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I9">
-        <v>-1313.584711680759</v>
+        <v>1115083.727328845</v>
       </c>
       <c r="J9">
-        <v>1829.855960851293</v>
+        <v>4842879.914277226</v>
       </c>
       <c r="K9">
-        <v>2118.543973933793</v>
+        <v>3986172.561364803</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +760,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>176.4115975950983</v>
+        <v>1116579.092673592</v>
       </c>
       <c r="G10">
-        <v>-99.15596978187186</v>
+        <v>4841138.383644138</v>
       </c>
       <c r="H10">
-        <v>650.3774392351638</v>
+        <v>3985225.903576288</v>
       </c>
       <c r="I10">
-        <v>-1277.460111401729</v>
+        <v>1115118.838764078</v>
       </c>
       <c r="J10">
-        <v>1776.208068371514</v>
+        <v>4842831.262717112</v>
       </c>
       <c r="K10">
-        <v>2350.208341270082</v>
+        <v>3986370.31642373</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +795,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>136.9159792860373</v>
+        <v>1116530.41208415</v>
       </c>
       <c r="G11">
-        <v>-79.5440477466567</v>
+        <v>4841154.896454163</v>
       </c>
       <c r="H11">
-        <v>801.2606287116319</v>
+        <v>3985425.157861828</v>
       </c>
       <c r="I11">
-        <v>-1240.44597607485</v>
+        <v>1115154.814786101</v>
       </c>
       <c r="J11">
-        <v>1722.560175891735</v>
+        <v>4842782.611156997</v>
       </c>
       <c r="K11">
-        <v>2564.126515657093</v>
+        <v>3986552.922845546</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>113.7142848435576</v>
+        <v>1116501.814679935</v>
       </c>
       <c r="G12">
-        <v>-59.93212571144155</v>
+        <v>4841171.40926419</v>
       </c>
       <c r="H12">
-        <v>891.134372823075</v>
+        <v>3985543.843904547</v>
       </c>
       <c r="I12">
-        <v>-1202.520401717928</v>
+        <v>1115191.676684568</v>
       </c>
       <c r="J12">
-        <v>1668.912283411956</v>
+        <v>4842733.959596883</v>
       </c>
       <c r="K12">
-        <v>2760.298497094827</v>
+        <v>3986720.380630251</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +865,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>99.06767314903884</v>
+        <v>1116483.761900383</v>
       </c>
       <c r="G13">
-        <v>-40.32020367622638</v>
+        <v>4841187.922074217</v>
       </c>
       <c r="H13">
-        <v>955.3610634053762</v>
+        <v>3985628.660797595</v>
       </c>
       <c r="I13">
-        <v>-1163.660944983353</v>
+        <v>1115229.446273374</v>
       </c>
       <c r="J13">
-        <v>1615.264390932176</v>
+        <v>4842685.308036769</v>
       </c>
       <c r="K13">
-        <v>2938.724285583284</v>
+        <v>3986872.689777844</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +900,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>88.85318560736874</v>
+        <v>1116471.171965204</v>
       </c>
       <c r="G14">
-        <v>-20.70828164101122</v>
+        <v>4841204.434884244</v>
       </c>
       <c r="H14">
-        <v>1005.374352952339</v>
+        <v>3985694.707666771</v>
       </c>
       <c r="I14">
-        <v>-1123.844609876736</v>
+        <v>1115268.145903556</v>
       </c>
       <c r="J14">
-        <v>1561.616498452397</v>
+        <v>4842636.656476654</v>
       </c>
       <c r="K14">
-        <v>3099.403881122463</v>
+        <v>3987009.850288325</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +935,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>81.232872012282</v>
+        <v>1116461.779496535</v>
       </c>
       <c r="G15">
-        <v>-1.096359605796073</v>
+        <v>4841220.94769427</v>
       </c>
       <c r="H15">
-        <v>1046.339116475652</v>
+        <v>3985748.805175688</v>
       </c>
       <c r="I15">
-        <v>-1083.047834148474</v>
+        <v>1115307.798476529</v>
       </c>
       <c r="J15">
-        <v>1507.968605972618</v>
+        <v>4842588.00491654</v>
       </c>
       <c r="K15">
-        <v>3242.337283712364</v>
+        <v>3987131.862161696</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +970,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>75.27485092616922</v>
+        <v>1116454.435897655</v>
       </c>
       <c r="G16">
-        <v>18.51556242941909</v>
+        <v>4841237.460504296</v>
       </c>
       <c r="H16">
-        <v>1081.033280897093</v>
+        <v>3985794.621816814</v>
       </c>
       <c r="I16">
-        <v>-1041.246475350249</v>
+        <v>1115348.427457631</v>
       </c>
       <c r="J16">
-        <v>1454.320713492839</v>
+        <v>4842539.353356425</v>
       </c>
       <c r="K16">
-        <v>3367.524493352988</v>
+        <v>3987238.725397955</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1005,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>70.4543780497638</v>
+        <v>1116448.494391456</v>
       </c>
       <c r="G17">
-        <v>38.12748446463426</v>
+        <v>4841253.973314323</v>
       </c>
       <c r="H17">
-        <v>1111.124149783672</v>
+        <v>3985834.359408537</v>
       </c>
       <c r="I17">
-        <v>-998.415796548163</v>
+        <v>1115390.056890015</v>
       </c>
       <c r="J17">
-        <v>1400.67282101306</v>
+        <v>4842490.701796311</v>
       </c>
       <c r="K17">
-        <v>3474.965510044334</v>
+        <v>3987330.439997102</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1040,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>66.45166793163784</v>
+        <v>1116443.560824234</v>
       </c>
       <c r="G18">
-        <v>57.7394064998494</v>
+        <v>4841270.48612435</v>
       </c>
       <c r="H18">
-        <v>1137.691409407754</v>
+        <v>3985869.443769846</v>
       </c>
       <c r="I18">
-        <v>-954.5304516840778</v>
+        <v>1115432.711408873</v>
       </c>
       <c r="J18">
-        <v>1347.02492853328</v>
+        <v>4842442.050236197</v>
       </c>
       <c r="K18">
-        <v>3564.660333786403</v>
+        <v>3987407.005959138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1075,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>63.05967227304233</v>
+        <v>1116439.379997218</v>
       </c>
       <c r="G19">
-        <v>77.35132853506458</v>
+        <v>4841286.998934376</v>
       </c>
       <c r="H19">
-        <v>1161.474452871174</v>
+        <v>3985900.851333206</v>
       </c>
       <c r="I19">
-        <v>-909.564470576491</v>
+        <v>1115476.416256017</v>
       </c>
       <c r="J19">
-        <v>1293.377036053501</v>
+        <v>4842393.398676082</v>
       </c>
       <c r="K19">
-        <v>3636.608964579194</v>
+        <v>3987468.423284063</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1110,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>60.13779893750122</v>
+        <v>1116435.778622627</v>
       </c>
       <c r="G20">
-        <v>96.96325057027973</v>
+        <v>4841303.511744403</v>
       </c>
       <c r="H20">
-        <v>1183.00188448843</v>
+        <v>3985929.280166273</v>
       </c>
       <c r="I20">
-        <v>-863.4912435520739</v>
+        <v>1115521.197294814</v>
       </c>
       <c r="J20">
-        <v>1239.729143573722</v>
+        <v>4842344.747115968</v>
       </c>
       <c r="K20">
-        <v>3690.811402422708</v>
+        <v>3987514.691971877</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1145,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>57.58685253731091</v>
+        <v>1116432.634436519</v>
       </c>
       <c r="G21">
-        <v>116.5751726054949</v>
+        <v>4841320.02455443</v>
       </c>
       <c r="H21">
-        <v>1202.664735222386</v>
+        <v>3985955.246659216</v>
       </c>
       <c r="I21">
-        <v>-816.2835056987725</v>
+        <v>1115567.081025493</v>
       </c>
       <c r="J21">
-        <v>1186.081251093943</v>
+        <v>4842296.095555853</v>
       </c>
       <c r="K21">
-        <v>3727.267647316944</v>
+        <v>3987545.812022578</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1180,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>55.33460796764329</v>
+        <v>1116429.858417358</v>
       </c>
       <c r="G22">
-        <v>136.1870946407101</v>
+        <v>4841336.537364456</v>
       </c>
       <c r="H22">
-        <v>1220.760414264228</v>
+        <v>3985979.14356656</v>
       </c>
       <c r="I22">
-        <v>-767.9133207311557</v>
+        <v>1115614.094600828</v>
       </c>
       <c r="J22">
-        <v>1132.433358614164</v>
+        <v>4842247.443995739</v>
       </c>
       <c r="K22">
-        <v>3745.977699261904</v>
+        <v>3987561.783436169</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1215,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>53.3270766990121</v>
+        <v>1116427.384021218</v>
       </c>
       <c r="G23">
-        <v>155.7990166759252</v>
+        <v>4841353.050174483</v>
       </c>
       <c r="H23">
-        <v>1237.520399552298</v>
+        <v>3986001.276574922</v>
       </c>
       <c r="I23">
-        <v>-718.3520644584655</v>
+        <v>1115662.265842204</v>
       </c>
       <c r="J23">
-        <v>1078.785466134384</v>
+        <v>4842198.792435626</v>
       </c>
       <c r="K23">
-        <v>3746.941558257584</v>
+        <v>3987562.606212648</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1250,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>51.52299280674264</v>
+        <v>1116425.160385508</v>
       </c>
       <c r="G24">
-        <v>175.4109387111404</v>
+        <v>4841369.56298451</v>
       </c>
       <c r="H24">
-        <v>1253.128391900522</v>
+        <v>3986021.888277092</v>
       </c>
       <c r="I24">
-        <v>-667.5704078455803</v>
+        <v>1115711.623256082</v>
       </c>
       <c r="J24">
-        <v>1025.137573654605</v>
+        <v>4842150.14087551</v>
       </c>
       <c r="K24">
-        <v>3730.159224303988</v>
+        <v>3987548.280352016</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1285,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>49.89020589537728</v>
+        <v>1116423.147883041</v>
       </c>
       <c r="G25">
-        <v>195.0228607463555</v>
+        <v>4841386.075794536</v>
       </c>
       <c r="H25">
-        <v>1267.732621136853</v>
+        <v>3986041.174423365</v>
       </c>
       <c r="I25">
-        <v>-615.5382996568698</v>
+        <v>1115762.196050869</v>
       </c>
       <c r="J25">
-        <v>971.4896811748263</v>
+        <v>4842101.489315396</v>
       </c>
       <c r="K25">
-        <v>3695.630697401115</v>
+        <v>3987518.805854272</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1320,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>48.40324853617019</v>
+        <v>1116421.315123767</v>
       </c>
       <c r="G26">
-        <v>214.6347827815707</v>
+        <v>4841402.588604563</v>
       </c>
       <c r="H26">
-        <v>1281.454428643445</v>
+        <v>3986059.295255517</v>
       </c>
       <c r="I26">
-        <v>-562.2249486726741</v>
+        <v>1115814.014154201</v>
       </c>
       <c r="J26">
-        <v>917.8417886950469</v>
+        <v>4842052.837755281</v>
       </c>
       <c r="K26">
-        <v>3643.355977548963</v>
+        <v>3987474.182719416</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1355,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>47.04165195151241</v>
+        <v>1116419.636878758</v>
       </c>
       <c r="G27">
-        <v>234.2467048167858</v>
+        <v>4841419.101414589</v>
       </c>
       <c r="H27">
-        <v>1294.394401516562</v>
+        <v>3986076.383607497</v>
       </c>
       <c r="I27">
-        <v>-507.5988054678765</v>
+        <v>1115867.108230656</v>
       </c>
       <c r="J27">
-        <v>864.1938962152676</v>
+        <v>4842004.186195167</v>
       </c>
       <c r="K27">
-        <v>3573.335064747534</v>
+        <v>3987414.41094745</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>45.78875258345467</v>
+        <v>1116418.092609232</v>
       </c>
       <c r="G28">
-        <v>253.858626852001</v>
+        <v>4841435.614224616</v>
       </c>
       <c r="H28">
-        <v>1306.636851450118</v>
+        <v>3986092.550820182</v>
       </c>
       <c r="I28">
-        <v>-451.6275437417912</v>
+        <v>1115921.509699899</v>
       </c>
       <c r="J28">
-        <v>810.5460037354886</v>
+        <v>4841955.534635052</v>
       </c>
       <c r="K28">
-        <v>3485.567958996829</v>
+        <v>3987339.490538372</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1425,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>44.63082910786806</v>
+        <v>1116416.66540288</v>
       </c>
       <c r="G29">
-        <v>273.4705488872162</v>
+        <v>4841452.127034643</v>
       </c>
       <c r="H29">
-        <v>1318.253147009683</v>
+        <v>3986107.891141926</v>
       </c>
       <c r="I29">
-        <v>-394.2780411883169</v>
+        <v>1115977.250755273</v>
       </c>
       <c r="J29">
-        <v>756.8981112557093</v>
+        <v>4841906.883074938</v>
       </c>
       <c r="K29">
-        <v>3380.054660296844</v>
+        <v>3987249.421492183</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1460,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>43.55646701998905</v>
+        <v>1116415.341190678</v>
       </c>
       <c r="G30">
-        <v>293.0824709224313</v>
+        <v>4841468.639844669</v>
       </c>
       <c r="H30">
-        <v>1329.304234449255</v>
+        <v>3986122.485057523</v>
       </c>
       <c r="I30">
-        <v>-335.5163598950385</v>
+        <v>1116034.364382854</v>
       </c>
       <c r="J30">
-        <v>703.25021877593</v>
+        <v>4841858.231514825</v>
       </c>
       <c r="K30">
-        <v>3256.795168647583</v>
+        <v>3987144.203808883</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1495,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>42.55608315823453</v>
+        <v>1116414.108160835</v>
       </c>
       <c r="G31">
-        <v>312.6943929576465</v>
+        <v>4841485.152654696</v>
       </c>
       <c r="H31">
-        <v>1339.842573220955</v>
+        <v>3986136.401844211</v>
       </c>
       <c r="I31">
-        <v>-275.3077262596688</v>
+        <v>1116092.884380972</v>
       </c>
       <c r="J31">
-        <v>649.602326296151</v>
+        <v>4841809.579954709</v>
       </c>
       <c r="K31">
-        <v>3115.789484049044</v>
+        <v>3987023.837488471</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1530,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>41.62156469817354</v>
+        <v>1116412.956313834</v>
       </c>
       <c r="G32">
-        <v>332.3063149928616</v>
+        <v>4841501.665464723</v>
       </c>
       <c r="H32">
-        <v>1349.913642048509</v>
+        <v>3986149.701560573</v>
       </c>
       <c r="I32">
-        <v>-213.6165104119553</v>
+        <v>1116152.845380205</v>
       </c>
       <c r="J32">
-        <v>595.9544338163716</v>
+        <v>4841760.928394595</v>
       </c>
       <c r="K32">
-        <v>2957.037606501227</v>
+        <v>3986888.322530947</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1565,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>40.74599143018671</v>
+        <v>1116411.877120126</v>
       </c>
       <c r="G33">
-        <v>351.9182370280768</v>
+        <v>4841518.178274749</v>
       </c>
       <c r="H33">
-        <v>1359.557125058927</v>
+        <v>3986162.436612927</v>
       </c>
       <c r="I33">
-        <v>-150.4062051288695</v>
+        <v>1116214.282863882</v>
       </c>
       <c r="J33">
-        <v>542.3065413365927</v>
+        <v>4841712.27683448</v>
       </c>
       <c r="K33">
-        <v>2780.539536004134</v>
+        <v>3986737.658936312</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1600,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>39.92341953886127</v>
+        <v>1116410.86325362</v>
       </c>
       <c r="G34">
-        <v>371.5301590632919</v>
+        <v>4841534.691084776</v>
       </c>
       <c r="H34">
-        <v>1368.807856219132</v>
+        <v>3986174.653002536</v>
       </c>
       <c r="I34">
-        <v>-85.63940423060212</v>
+        <v>1116277.233189072</v>
       </c>
       <c r="J34">
-        <v>488.6586488568133</v>
+        <v>4841663.625274367</v>
       </c>
       <c r="K34">
-        <v>2586.295272557762</v>
+        <v>3986571.846704565</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1635,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>39.14871141826413</v>
+        <v>1116409.908381926</v>
       </c>
       <c r="G35">
-        <v>391.1420810985072</v>
+        <v>4841551.203894801</v>
       </c>
       <c r="H35">
-        <v>1377.696578870074</v>
+        <v>3986186.391328637</v>
       </c>
       <c r="I35">
-        <v>-19.27778044457948</v>
+        <v>1116341.733608107</v>
       </c>
       <c r="J35">
-        <v>435.010756377034</v>
+        <v>4841614.973714252</v>
       </c>
       <c r="K35">
-        <v>2374.304816162114</v>
+        <v>3986390.885835708</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1670,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>38.4174003757832</v>
+        <v>1116409.006999592</v>
       </c>
       <c r="G36">
-        <v>410.7540031337223</v>
+        <v>4841567.716704829</v>
       </c>
       <c r="H36">
-        <v>1386.250562166809</v>
+        <v>3986197.687602504</v>
       </c>
       <c r="I36">
-        <v>48.71793727559973</v>
+        <v>1116407.822290622</v>
       </c>
       <c r="J36">
-        <v>381.362863897255</v>
+        <v>4841566.322154137</v>
       </c>
       <c r="K36">
-        <v>2144.568166817187</v>
+        <v>3986194.776329739</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1705,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>37.72558207871692</v>
+        <v>1116408.154294306</v>
       </c>
       <c r="G37">
-        <v>430.3659251689375</v>
+        <v>4841584.229514856</v>
       </c>
       <c r="H37">
-        <v>1394.494105603484</v>
+        <v>3986208.57391372</v>
       </c>
       <c r="I37">
-        <v>118.387986989725</v>
+        <v>1116475.538346143</v>
       </c>
       <c r="J37">
-        <v>327.7149714174757</v>
+        <v>4841517.670594024</v>
       </c>
       <c r="K37">
-        <v>1897.085324522983</v>
+        <v>3985983.518186658</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1740,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>37.06982671541438</v>
+        <v>1116407.346038632</v>
       </c>
       <c r="G38">
-        <v>449.9778472041526</v>
+        <v>4841600.742324881</v>
       </c>
       <c r="H38">
-        <v>1402.44895515325</v>
+        <v>3986219.078979718</v>
       </c>
       <c r="I38">
-        <v>189.7735975827908</v>
+        <v>1116544.921847234</v>
       </c>
       <c r="J38">
-        <v>274.0670789376966</v>
+        <v>4841469.019033909</v>
       </c>
       <c r="K38">
-        <v>1631.856289279503</v>
+        <v>3985757.111406466</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1775,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>36.44710735760137</v>
+        <v>1116406.578501708</v>
       </c>
       <c r="G39">
-        <v>469.5897692393678</v>
+        <v>4841617.255134908</v>
       </c>
       <c r="H39">
-        <v>1410.134648976305</v>
+        <v>3986229.22860233</v>
       </c>
       <c r="I39">
-        <v>262.9170131631525</v>
+        <v>1116616.013853207</v>
       </c>
       <c r="J39">
-        <v>220.4191864579173</v>
+        <v>4841420.367473794</v>
       </c>
       <c r="K39">
-        <v>1348.881061086743</v>
+        <v>3985515.555989163</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1810,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>35.85474110805774</v>
+        <v>1116405.848376711</v>
       </c>
       <c r="G40">
-        <v>489.2016912745829</v>
+        <v>4841633.767944936</v>
       </c>
       <c r="H40">
-        <v>1417.568806533678</v>
+        <v>3986239.046049574</v>
       </c>
       <c r="I40">
-        <v>337.8615180614729</v>
+        <v>1116688.856434424</v>
       </c>
       <c r="J40">
-        <v>166.771293978138</v>
+        <v>4841371.71591368</v>
       </c>
       <c r="K40">
-        <v>1048.159639944706</v>
+        <v>3985258.851934748</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1845,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>35.29034042245245</v>
+        <v>1116405.152720858</v>
       </c>
       <c r="G41">
-        <v>508.8136133097981</v>
+        <v>4841650.280754962</v>
       </c>
       <c r="H41">
-        <v>1424.767371872941</v>
+        <v>3986248.552376942</v>
       </c>
       <c r="I41">
-        <v>414.6514624452329</v>
+        <v>1116763.492697189</v>
       </c>
       <c r="J41">
-        <v>113.123401498359</v>
+        <v>4841323.064353566</v>
       </c>
       <c r="K41">
-        <v>729.692025853393</v>
+        <v>3984986.999243222</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1880,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>34.75177259057286</v>
+        <v>1116404.488905462</v>
       </c>
       <c r="G42">
-        <v>528.4255353450131</v>
+        <v>4841666.793564988</v>
       </c>
       <c r="H42">
-        <v>1431.744819535812</v>
+        <v>3986257.766699318</v>
       </c>
       <c r="I42">
-        <v>493.3322885639913</v>
+        <v>1116839.966809261</v>
       </c>
       <c r="J42">
-        <v>59.47550901857969</v>
+        <v>4841274.412793452</v>
       </c>
       <c r="K42">
-        <v>393.4782188128011</v>
+        <v>3984699.997914584</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1915,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>34.2371258088146</v>
+        <v>1116403.854574116</v>
       </c>
       <c r="G43">
-        <v>548.0374573802285</v>
+        <v>4841683.306375016</v>
       </c>
       <c r="H43">
-        <v>1438.514329773968</v>
+        <v>3986266.706422363</v>
       </c>
       <c r="I43">
-        <v>573.9505576408907</v>
+        <v>1116918.324025988</v>
       </c>
       <c r="J43">
-        <v>5.8276165388004</v>
+        <v>4841225.761233336</v>
       </c>
       <c r="K43">
-        <v>39.51821882293187</v>
+        <v>3984397.847948836</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1950,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>33.74468061347304</v>
+        <v>1116403.247607486</v>
       </c>
       <c r="G44">
-        <v>567.6493794154436</v>
+        <v>4841699.819185042</v>
       </c>
       <c r="H44">
-        <v>1445.087938404299</v>
+        <v>3986275.387440411</v>
       </c>
       <c r="I44">
-        <v>656.5539774263605</v>
+        <v>1116998.61071709</v>
       </c>
       <c r="J44">
-        <v>-47.82027594097865</v>
+        <v>4841177.109673223</v>
       </c>
       <c r="K44">
-        <v>-332.1879741162138</v>
+        <v>3984080.549345975</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1985,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>33.27288570195932</v>
+        <v>1116402.666093501</v>
       </c>
       <c r="G45">
-        <v>587.2613014506587</v>
+        <v>4841716.331995068</v>
       </c>
       <c r="H45">
-        <v>1451.476665584733</v>
+        <v>3986283.824306534</v>
       </c>
       <c r="I45">
-        <v>741.1914304302951</v>
+        <v>1117080.874394097</v>
       </c>
       <c r="J45">
-        <v>-101.4681684207579</v>
+        <v>4841128.458113109</v>
       </c>
       <c r="K45">
-        <v>-721.6403600046381</v>
+        <v>3983748.102106004</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>32.82033736720606</v>
+        <v>1116402.108302013</v>
       </c>
       <c r="G46">
-        <v>606.873223485874</v>
+        <v>4841732.844805094</v>
       </c>
       <c r="H46">
-        <v>1457.690626971672</v>
+        <v>3986292.03037933</v>
       </c>
       <c r="I46">
-        <v>827.9130028494233</v>
+        <v>1117165.16373847</v>
       </c>
       <c r="J46">
-        <v>-155.1160609005372</v>
+        <v>4841079.806552993</v>
       </c>
       <c r="K46">
-        <v>-1128.838938842341</v>
+        <v>3983400.50622892</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2055,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>32.38576192415684</v>
+        <v>1116401.572663134</v>
       </c>
       <c r="G47">
-        <v>626.4851455210891</v>
+        <v>4841749.357615122</v>
       </c>
       <c r="H47">
-        <v>1463.739130074703</v>
+        <v>3986300.01795017</v>
       </c>
       <c r="I47">
-        <v>916.7700142069885</v>
+        <v>1117251.528630402</v>
       </c>
       <c r="J47">
-        <v>-208.7639533803165</v>
+        <v>4841031.154992879</v>
       </c>
       <c r="K47">
-        <v>-1553.78371062932</v>
+        <v>3983037.761714726</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2090,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>31.96800062722747</v>
+        <v>1116401.057748644</v>
       </c>
       <c r="G48">
-        <v>646.0970675563042</v>
+        <v>4841765.870425149</v>
       </c>
       <c r="H48">
-        <v>1469.630758112856</v>
+        <v>3986307.798353934</v>
       </c>
       <c r="I48">
-        <v>1007.815047722282</v>
+        <v>1117340.020178345</v>
       </c>
       <c r="J48">
-        <v>-262.4118458600954</v>
+        <v>4840982.503432765</v>
       </c>
       <c r="K48">
-        <v>-1996.474675365574</v>
+        <v>3982659.86856342</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>31.56599667201661</v>
+        <v>1116400.56225597</v>
       </c>
       <c r="G49">
-        <v>665.7089895915194</v>
+        <v>4841782.383235174</v>
       </c>
       <c r="H49">
-        <v>1475.373443268773</v>
+        <v>3986315.382065756</v>
       </c>
       <c r="I49">
-        <v>1101.101981427995</v>
+        <v>1117430.690749245</v>
       </c>
       <c r="J49">
-        <v>-316.0597383398746</v>
+        <v>4840933.851872651</v>
       </c>
       <c r="K49">
-        <v>-2456.911833051108</v>
+        <v>3982266.826775003</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2160,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>31.17878394927684</v>
+        <v>1116400.08499433</v>
       </c>
       <c r="G50">
-        <v>685.3209116267345</v>
+        <v>4841798.896045201</v>
       </c>
       <c r="H50">
-        <v>1480.974530909725</v>
+        <v>3986322.778785829</v>
       </c>
       <c r="I50">
-        <v>1196.686020053806</v>
+        <v>1117523.593999538</v>
       </c>
       <c r="J50">
-        <v>-369.7076308196539</v>
+        <v>4840885.200312535</v>
       </c>
       <c r="K50">
-        <v>-2935.095183685921</v>
+        <v>3981858.636349474</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2195,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>30.80547727870446</v>
+        <v>1116399.624872688</v>
       </c>
       <c r="G51">
-        <v>704.9328336619496</v>
+        <v>4841815.408855229</v>
       </c>
       <c r="H51">
-        <v>1486.440836080046</v>
+        <v>3986329.997514005</v>
       </c>
       <c r="I51">
-        <v>1294.623727695074</v>
+        <v>1117618.7849069</v>
       </c>
       <c r="J51">
-        <v>-423.3555232994332</v>
+        <v>4840836.548752422</v>
       </c>
       <c r="K51">
-        <v>-3431.024727270011</v>
+        <v>3981435.297286834</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2230,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>30.44526389783444</v>
+        <v>1116399.180889267</v>
       </c>
       <c r="G52">
-        <v>724.5447556971649</v>
+        <v>4841831.921665254</v>
       </c>
       <c r="H52">
-        <v>1491.778693354907</v>
+        <v>3986337.04661564</v>
       </c>
       <c r="I52">
-        <v>1394.973061285971</v>
+        <v>1117716.319802782</v>
       </c>
       <c r="J52">
-        <v>-477.0034157792125</v>
+        <v>4840787.897192308</v>
       </c>
       <c r="K52">
-        <v>-3944.700463803378</v>
+        <v>3980996.809587082</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2265,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>30.0973960197926</v>
+        <v>1116398.752122379</v>
       </c>
       <c r="G53">
-        <v>744.15667773238</v>
+        <v>4841848.434475281</v>
       </c>
       <c r="H53">
-        <v>1496.994000970133</v>
+        <v>3986343.933879863</v>
       </c>
       <c r="I53">
-        <v>1497.793404896847</v>
+        <v>1117816.256405744</v>
       </c>
       <c r="J53">
-        <v>-530.6513082589913</v>
+        <v>4840739.245632193</v>
       </c>
       <c r="K53">
-        <v>-4476.122393286018</v>
+        <v>3980543.173250219</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2300,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>29.76118430483267</v>
+        <v>1116398.337722373</v>
       </c>
       <c r="G54">
-        <v>763.7685997675951</v>
+        <v>4841864.947285309</v>
       </c>
       <c r="H54">
-        <v>1502.09225999903</v>
+        <v>3986350.666571317</v>
       </c>
       <c r="I54">
-        <v>1603.145604876161</v>
+        <v>1117918.653855614</v>
       </c>
       <c r="J54">
-        <v>-584.2992007387707</v>
+        <v>4840690.594072078</v>
       </c>
       <c r="K54">
-        <v>-5025.290515717941</v>
+        <v>3980074.388276245</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2335,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G55">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H55">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I55">
-        <v>-1262.118264584884</v>
+        <v>1114862.051726658</v>
       </c>
       <c r="J55">
-        <v>1874.310572338416</v>
+        <v>4843221.62154626</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984374.288507054</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2370,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G56">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H56">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I56">
-        <v>-1237.200689352578</v>
+        <v>1114891.665741565</v>
       </c>
       <c r="J56">
-        <v>1828.716479243182</v>
+        <v>4843172.969974631</v>
       </c>
       <c r="K56">
-        <v>302.4397938323536</v>
+        <v>3984678.084801527</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2405,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G57">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H57">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I57">
-        <v>-1211.669541753924</v>
+        <v>1114922.008974344</v>
       </c>
       <c r="J57">
-        <v>1783.122386147949</v>
+        <v>4843124.318403</v>
       </c>
       <c r="K57">
-        <v>589.7985532099804</v>
+        <v>3984966.732420206</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2440,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G58">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H58">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I58">
-        <v>-1185.509713133879</v>
+        <v>1114953.099381315</v>
       </c>
       <c r="J58">
-        <v>1737.528293052716</v>
+        <v>4843075.66683137</v>
       </c>
       <c r="K58">
-        <v>862.0762781328824</v>
+        <v>3985240.23136309</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2475,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G59">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H59">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I59">
-        <v>-1158.705722800667</v>
+        <v>1114984.955360955</v>
       </c>
       <c r="J59">
-        <v>1691.934199957482</v>
+        <v>4843027.015259741</v>
       </c>
       <c r="K59">
-        <v>1119.272968601058</v>
+        <v>3985498.58163018</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2510,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G60">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H60">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I60">
-        <v>-1131.241708864718</v>
+        <v>1115017.595764787</v>
       </c>
       <c r="J60">
-        <v>1646.340106862249</v>
+        <v>4842978.363688111</v>
       </c>
       <c r="K60">
-        <v>1361.388624614509</v>
+        <v>3985741.783221475</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2545,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G61">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H61">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I61">
-        <v>-1103.101418852025</v>
+        <v>1115051.039908535</v>
       </c>
       <c r="J61">
-        <v>1600.746013767015</v>
+        <v>4842929.712116481</v>
       </c>
       <c r="K61">
-        <v>1588.423246173234</v>
+        <v>3985969.836136974</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2580,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G62">
-        <v>-67.6040093921811</v>
+        <v>4841119.390542356</v>
       </c>
       <c r="H62">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I62">
-        <v>-1074.268200086363</v>
+        <v>1115085.307583554</v>
       </c>
       <c r="J62">
-        <v>1555.151920671781</v>
+        <v>4842881.060544851</v>
       </c>
       <c r="K62">
-        <v>1800.376833277233</v>
+        <v>3986182.74037668</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2615,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>271.2764998893117</v>
+        <v>1116577.954805797</v>
       </c>
       <c r="G63">
-        <v>-56.44068451386023</v>
+        <v>4841135.903343923</v>
       </c>
       <c r="H63">
-        <v>928.3600743445267</v>
+        <v>3985223.744979169</v>
       </c>
       <c r="I63">
-        <v>-1044.72498983467</v>
+        <v>1115120.419068545</v>
       </c>
       <c r="J63">
-        <v>1509.557827576548</v>
+        <v>4842832.408973222</v>
       </c>
       <c r="K63">
-        <v>1997.249385926506</v>
+        <v>3986380.495940591</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2650,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>210.5422100698991</v>
+        <v>1116529.274265964</v>
       </c>
       <c r="G64">
-        <v>-45.27735963553936</v>
+        <v>4841152.41614549</v>
       </c>
       <c r="H64">
-        <v>1143.733364605699</v>
+        <v>3985422.999156783</v>
       </c>
       <c r="I64">
-        <v>-1014.454305209785</v>
+        <v>1115156.395141552</v>
       </c>
       <c r="J64">
-        <v>1463.963734481315</v>
+        <v>4842783.757401592</v>
       </c>
       <c r="K64">
-        <v>2179.040904121053</v>
+        <v>3986563.102828707</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2685,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>174.8638615618639</v>
+        <v>1116500.676890892</v>
       </c>
       <c r="G65">
-        <v>-34.11403475721849</v>
+        <v>4841168.928947056</v>
       </c>
       <c r="H65">
-        <v>1272.020710893478</v>
+        <v>3985541.685135215</v>
       </c>
       <c r="I65">
-        <v>-983.4382328245314</v>
+        <v>1115193.257092259</v>
       </c>
       <c r="J65">
-        <v>1418.369641386081</v>
+        <v>4842735.105829962</v>
       </c>
       <c r="K65">
-        <v>2345.751387860875</v>
+        <v>3986730.561041028</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2720,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>152.3410704875127</v>
+        <v>1116482.624129737</v>
       </c>
       <c r="G66">
-        <v>-22.95070987889762</v>
+        <v>4841185.441748623</v>
       </c>
       <c r="H66">
-        <v>1363.699006675089</v>
+        <v>3985626.501982322</v>
       </c>
       <c r="I66">
-        <v>-951.6584181910537</v>
+        <v>1115231.02673459</v>
       </c>
       <c r="J66">
-        <v>1372.775548290847</v>
+        <v>4842686.454258332</v>
       </c>
       <c r="K66">
-        <v>2497.380837145972</v>
+        <v>3986882.870577555</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2755,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>136.6337674176366</v>
+        <v>1116470.034207388</v>
       </c>
       <c r="G67">
-        <v>-11.78738500057675</v>
+        <v>4841201.954550189</v>
       </c>
       <c r="H67">
-        <v>1435.088846483547</v>
+        <v>3985692.548815723</v>
       </c>
       <c r="I67">
-        <v>-919.0960548591203</v>
+        <v>1115269.726419616</v>
       </c>
       <c r="J67">
-        <v>1327.181455195614</v>
+        <v>4842637.802686702</v>
       </c>
       <c r="K67">
-        <v>2633.929251976343</v>
+        <v>3987020.031438287</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2790,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>124.915648947451</v>
+        <v>1116460.64174829</v>
       </c>
       <c r="G68">
-        <v>-0.6240601222558906</v>
+        <v>4841218.467351755</v>
       </c>
       <c r="H68">
-        <v>1493.562662787401</v>
+        <v>3985746.646295339</v>
       </c>
       <c r="I68">
-        <v>-885.7318732869632</v>
+        <v>1115309.379048783</v>
       </c>
       <c r="J68">
-        <v>1281.58736210038</v>
+        <v>4842589.151115073</v>
       </c>
       <c r="K68">
-        <v>2755.396632351987</v>
+        <v>3987142.043623224</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2825,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>115.7537166904966</v>
+        <v>1116453.298156894</v>
       </c>
       <c r="G69">
-        <v>10.53926475606498</v>
+        <v>4841234.980153321</v>
       </c>
       <c r="H69">
-        <v>1543.085716815055</v>
+        <v>3985792.462911648</v>
       </c>
       <c r="I69">
-        <v>-851.5461294380758</v>
+        <v>1115350.008087463</v>
       </c>
       <c r="J69">
-        <v>1235.993269005147</v>
+        <v>4842540.499543442</v>
       </c>
       <c r="K69">
-        <v>2861.782978272906</v>
+        <v>3987248.907132368</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2860,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>108.3410463924586</v>
+        <v>1116447.35665675</v>
       </c>
       <c r="G70">
-        <v>21.70258963438585</v>
+        <v>4841251.492954888</v>
       </c>
       <c r="H70">
-        <v>1586.037946691736</v>
+        <v>3985832.200481847</v>
       </c>
       <c r="I70">
-        <v>-816.5185930972169</v>
+        <v>1115391.637578843</v>
       </c>
       <c r="J70">
-        <v>1190.399175909914</v>
+        <v>4842491.847971813</v>
       </c>
       <c r="K70">
-        <v>2953.0882897391</v>
+        <v>3987340.621965715</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2895,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>102.1858887626922</v>
+        <v>1116442.423094555</v>
       </c>
       <c r="G71">
-        <v>32.86591451270671</v>
+        <v>4841268.005756455</v>
       </c>
       <c r="H71">
-        <v>1623.960515390841</v>
+        <v>3985867.284824153</v>
       </c>
       <c r="I71">
-        <v>-780.6285358987074</v>
+        <v>1115434.292158149</v>
       </c>
       <c r="J71">
-        <v>1144.80508281468</v>
+        <v>4842443.196400183</v>
       </c>
       <c r="K71">
-        <v>3029.312566750568</v>
+        <v>3987417.188123269</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2930,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>96.96985578953407</v>
+        <v>1116438.242271799</v>
       </c>
       <c r="G72">
-        <v>44.02923939102759</v>
+        <v>4841284.518558021</v>
       </c>
       <c r="H72">
-        <v>1657.908845492519</v>
+        <v>3985898.6923705</v>
       </c>
       <c r="I72">
-        <v>-743.8547190599314</v>
+        <v>1115477.99706723</v>
       </c>
       <c r="J72">
-        <v>1099.210989719446</v>
+        <v>4842394.544828554</v>
       </c>
       <c r="K72">
-        <v>3090.45580930731</v>
+        <v>3987478.605605028</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2965,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>92.47675226124584</v>
+        <v>1116434.640900878</v>
       </c>
       <c r="G73">
-        <v>55.19256426934845</v>
+        <v>4841301.031359588</v>
       </c>
       <c r="H73">
-        <v>1688.637475993824</v>
+        <v>3985927.12118817</v>
       </c>
       <c r="I73">
-        <v>-706.1753808127917</v>
+        <v>1115522.778169489</v>
       </c>
       <c r="J73">
-        <v>1053.616896624213</v>
+        <v>4842345.893256923</v>
       </c>
       <c r="K73">
-        <v>3136.518017409327</v>
+        <v>3987524.874410992</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3000,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>88.5540407145981</v>
+        <v>1116431.496717975</v>
       </c>
       <c r="G74">
-        <v>66.35588914766932</v>
+        <v>4841317.544161154</v>
       </c>
       <c r="H74">
-        <v>1716.704571295696</v>
+        <v>3985953.087667048</v>
       </c>
       <c r="I74">
-        <v>-667.5682235256719</v>
+        <v>1115568.661965193</v>
       </c>
       <c r="J74">
-        <v>1008.022803528979</v>
+        <v>4842297.241685294</v>
       </c>
       <c r="K74">
-        <v>3167.499191056617</v>
+        <v>3987555.994541161</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3035,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>85.09065717245439</v>
+        <v>1116428.720701643</v>
       </c>
       <c r="G75">
-        <v>77.51921402599019</v>
+        <v>4841334.05696272</v>
       </c>
       <c r="H75">
-        <v>1742.534658453016</v>
+        <v>3985976.984561448</v>
       </c>
       <c r="I75">
-        <v>-628.01040050829</v>
+        <v>1115615.675607153</v>
       </c>
       <c r="J75">
-        <v>962.4287104337459</v>
+        <v>4842248.590113664</v>
       </c>
       <c r="K75">
-        <v>3183.399330249183</v>
+        <v>3987571.965995536</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3070,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>82.00358090651308</v>
+        <v>1116426.246308024</v>
       </c>
       <c r="G76">
-        <v>88.68253890431106</v>
+        <v>4841350.569764287</v>
       </c>
       <c r="H76">
-        <v>1766.458153103052</v>
+        <v>3985999.117557821</v>
       </c>
       <c r="I76">
-        <v>-587.4785024916348</v>
+        <v>1115663.846916796</v>
       </c>
       <c r="J76">
-        <v>916.8346173385123</v>
+        <v>4842199.938542034</v>
       </c>
       <c r="K76">
-        <v>3184.218434987022</v>
+        <v>3987572.788774116</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3105,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>79.22935534269932</v>
+        <v>1116424.02267458</v>
       </c>
       <c r="G77">
-        <v>99.84586378263194</v>
+        <v>4841367.082565854</v>
       </c>
       <c r="H77">
-        <v>1788.737272984279</v>
+        <v>3986019.729248828</v>
       </c>
       <c r="I77">
-        <v>-545.9485437749822</v>
+        <v>1115713.204400621</v>
       </c>
       <c r="J77">
-        <v>871.2405242432787</v>
+        <v>4842151.286970404</v>
       </c>
       <c r="K77">
-        <v>3169.956505270135</v>
+        <v>3987558.462876901</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3140,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>76.71854128955012</v>
+        <v>1116422.010174164</v>
       </c>
       <c r="G78">
-        <v>111.0091886609528</v>
+        <v>4841383.59536742</v>
       </c>
       <c r="H78">
-        <v>1809.58360393255</v>
+        <v>3986039.015384655</v>
       </c>
       <c r="I78">
-        <v>-503.3959480317931</v>
+        <v>1115763.777267078</v>
       </c>
       <c r="J78">
-        <v>825.6464311480453</v>
+        <v>4842102.635398774</v>
       </c>
       <c r="K78">
-        <v>3140.613541098524</v>
+        <v>3987528.988303892</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3175,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>74.43197627121053</v>
+        <v>1116420.177416758</v>
       </c>
       <c r="G79">
-        <v>122.1725135392737</v>
+        <v>4841400.108168987</v>
       </c>
       <c r="H79">
-        <v>1829.170350748278</v>
+        <v>3986057.136206991</v>
       </c>
       <c r="I79">
-        <v>-459.7955337660985</v>
+        <v>1115815.595443845</v>
       </c>
       <c r="J79">
-        <v>780.0523380528117</v>
+        <v>4842053.983827145</v>
       </c>
       <c r="K79">
-        <v>3096.189542472186</v>
+        <v>3987484.365055088</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3210,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>72.33818447530501</v>
+        <v>1116418.499173459</v>
       </c>
       <c r="G80">
-        <v>133.3358384175945</v>
+        <v>4841416.620970553</v>
       </c>
       <c r="H80">
-        <v>1847.641093203045</v>
+        <v>3986074.224549715</v>
       </c>
       <c r="I80">
-        <v>-415.1214994107567</v>
+        <v>1115868.689595543</v>
       </c>
       <c r="J80">
-        <v>734.4582449575781</v>
+        <v>4842005.332255514</v>
       </c>
       <c r="K80">
-        <v>3036.684509391123</v>
+        <v>3987424.59313049</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3245,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>70.41154155662154</v>
+        <v>1116416.954905507</v>
       </c>
       <c r="G81">
-        <v>144.4991632959154</v>
+        <v>4841433.133772119</v>
       </c>
       <c r="H81">
-        <v>1865.116179275896</v>
+        <v>3986090.391753643</v>
       </c>
       <c r="I81">
-        <v>-369.3474080587729</v>
+        <v>1115923.091141881</v>
       </c>
       <c r="J81">
-        <v>688.8641518623447</v>
+        <v>4841956.680683885</v>
       </c>
       <c r="K81">
-        <v>2962.098441855334</v>
+        <v>3987349.672530096</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3280,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>68.63094758276179</v>
+        <v>1116415.52770061</v>
       </c>
       <c r="G82">
-        <v>155.6624881742363</v>
+        <v>4841449.646573686</v>
       </c>
       <c r="H82">
-        <v>1881.697481699251</v>
+        <v>3986105.732067078</v>
       </c>
       <c r="I82">
-        <v>-322.4461718186378</v>
+        <v>1115978.832276249</v>
       </c>
       <c r="J82">
-        <v>643.2700587671111</v>
+        <v>4841908.029112255</v>
       </c>
       <c r="K82">
-        <v>2872.43133986482</v>
+        <v>3987259.603253909</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3315,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>66.97884992712734</v>
+        <v>1116414.203489757</v>
       </c>
       <c r="G83">
-        <v>166.8258130525571</v>
+        <v>4841466.159375252</v>
       </c>
       <c r="H83">
-        <v>1897.471996216627</v>
+        <v>3986120.32597477</v>
       </c>
       <c r="I83">
-        <v>-274.3900357844357</v>
+        <v>1116035.94598477</v>
       </c>
       <c r="J83">
-        <v>597.6759656718775</v>
+        <v>4841859.377540626</v>
       </c>
       <c r="K83">
-        <v>2767.683203419579</v>
+        <v>3987154.385301927</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3350,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>65.44051210658679</v>
+        <v>1116412.97046117</v>
       </c>
       <c r="G84">
-        <v>177.989137930878</v>
+        <v>4841482.672176818</v>
       </c>
       <c r="H84">
-        <v>1912.514604362858</v>
+        <v>3986134.24275392</v>
       </c>
       <c r="I84">
-        <v>-225.150561611226</v>
+        <v>1116094.46606582</v>
       </c>
       <c r="J84">
-        <v>552.0818725766442</v>
+        <v>4841810.725968995</v>
       </c>
       <c r="K84">
-        <v>2647.854032519614</v>
+        <v>3987034.018674149</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3385,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>64.00345864534462</v>
+        <v>1116411.818615343</v>
       </c>
       <c r="G85">
-        <v>189.1524628091989</v>
+        <v>4841499.184978385</v>
       </c>
       <c r="H85">
-        <v>1926.890223259589</v>
+        <v>3986147.542463079</v>
       </c>
       <c r="I85">
-        <v>-174.6986106859866</v>
+        <v>1116154.427150028</v>
       </c>
       <c r="J85">
-        <v>506.4877794814105</v>
+        <v>4841762.074397366</v>
       </c>
       <c r="K85">
-        <v>2512.943827164921</v>
+        <v>3986898.503370577</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3420,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>62.65704800809572</v>
+        <v>1116410.739422735</v>
       </c>
       <c r="G86">
-        <v>200.3157876875197</v>
+        <v>4841515.697779952</v>
       </c>
       <c r="H86">
-        <v>1940.655498720281</v>
+        <v>3986160.277508535</v>
       </c>
       <c r="I86">
-        <v>-123.0043268841567</v>
+        <v>1116215.864720771</v>
       </c>
       <c r="J86">
-        <v>460.8936863861771</v>
+        <v>4841713.422825736</v>
       </c>
       <c r="K86">
-        <v>2362.952587355504</v>
+        <v>3986747.839391211</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3455,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>61.39214010732234</v>
+        <v>1116409.725557262</v>
       </c>
       <c r="G87">
-        <v>211.4791125658406</v>
+        <v>4841532.210581519</v>
       </c>
       <c r="H87">
-        <v>1953.860153355485</v>
+        <v>3986172.493891526</v>
       </c>
       <c r="I87">
-        <v>-70.03711890157568</v>
+        <v>1116278.815135173</v>
       </c>
       <c r="J87">
-        <v>415.2995932909436</v>
+        <v>4841664.771254106</v>
       </c>
       <c r="K87">
-        <v>2197.880313091361</v>
+        <v>3986582.026736049</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3490,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>60.20083460214925</v>
+        <v>1116408.770686541</v>
       </c>
       <c r="G88">
-        <v>222.6424374441615</v>
+        <v>4841548.723383084</v>
       </c>
       <c r="H88">
-        <v>1966.548070745057</v>
+        <v>3986184.232211269</v>
       </c>
       <c r="I88">
-        <v>-15.7656421513617</v>
+        <v>1116343.315645615</v>
       </c>
       <c r="J88">
-        <v>369.70550019571</v>
+        <v>4841616.119682476</v>
       </c>
       <c r="K88">
-        <v>2017.727004372492</v>
+        <v>3986401.065405094</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3525,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>59.07626284700892</v>
+        <v>1116407.869305126</v>
       </c>
       <c r="G89">
-        <v>233.8057623224824</v>
+        <v>4841565.236184651</v>
       </c>
       <c r="H89">
-        <v>1978.758175355447</v>
+        <v>3986195.528479018</v>
       </c>
       <c r="I89">
-        <v>39.84221978498338</v>
+        <v>1116409.404421788</v>
       </c>
       <c r="J89">
-        <v>324.1114071004766</v>
+        <v>4841567.468110846</v>
       </c>
       <c r="K89">
-        <v>1822.492661198898</v>
+        <v>3986204.955398344</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3560,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>58.01242096390168</v>
+        <v>1116407.016600709</v>
       </c>
       <c r="G90">
-        <v>244.9690872008032</v>
+        <v>4841581.748986218</v>
       </c>
       <c r="H90">
-        <v>1990.525152707449</v>
+        <v>3986206.414784336</v>
       </c>
       <c r="I90">
-        <v>96.81937416321594</v>
+        <v>1116477.120573274</v>
       </c>
       <c r="J90">
-        <v>278.517314005243</v>
+        <v>4841518.816539217</v>
       </c>
       <c r="K90">
-        <v>1612.177283570578</v>
+        <v>3985993.696715798</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3595,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>57.00403476840532</v>
+        <v>1116406.208345858</v>
       </c>
       <c r="G91">
-        <v>256.1324120791241</v>
+        <v>4841598.261787783</v>
       </c>
       <c r="H91">
-        <v>2001.880043381556</v>
+        <v>3986216.919844646</v>
       </c>
       <c r="I91">
-        <v>155.1995385499921</v>
+        <v>1116546.504172692</v>
       </c>
       <c r="J91">
-        <v>232.9232209100096</v>
+        <v>4841470.164967587</v>
       </c>
       <c r="K91">
-        <v>1386.780871487533</v>
+        <v>3985767.289357458</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3630,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>56.04644960901823</v>
+        <v>1116405.440809716</v>
       </c>
       <c r="G92">
-        <v>267.295736957445</v>
+        <v>4841614.77458935</v>
       </c>
       <c r="H92">
-        <v>2012.850736487625</v>
+        <v>3986227.069461759</v>
       </c>
       <c r="I92">
-        <v>215.0172607760257</v>
+        <v>1116617.596279414</v>
       </c>
       <c r="J92">
-        <v>187.329127814776</v>
+        <v>4841421.513395957</v>
       </c>
       <c r="K92">
-        <v>1146.303424949761</v>
+        <v>3985525.733323324</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3665,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>55.13553986714522</v>
+        <v>1116404.710685464</v>
       </c>
       <c r="G93">
-        <v>278.4590618357658</v>
+        <v>4841631.287390918</v>
       </c>
       <c r="H93">
-        <v>2023.462382350938</v>
+        <v>3986236.886903686</v>
       </c>
       <c r="I93">
-        <v>276.3079393805804</v>
+        <v>1116690.438963861</v>
       </c>
       <c r="J93">
-        <v>141.7350347195424</v>
+        <v>4841372.861824327</v>
       </c>
       <c r="K93">
-        <v>890.7449439572636</v>
+        <v>3985269.028613395</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3700,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>54.26763410236923</v>
+        <v>1116404.015030319</v>
       </c>
       <c r="G94">
-        <v>289.6223867140867</v>
+        <v>4841647.800192483</v>
       </c>
       <c r="H94">
-        <v>2033.73773978245</v>
+        <v>3986246.393225905</v>
       </c>
       <c r="I94">
-        <v>339.107844559381</v>
+        <v>1116765.075332398</v>
       </c>
       <c r="J94">
-        <v>96.14094162430901</v>
+        <v>4841324.210252699</v>
       </c>
       <c r="K94">
-        <v>620.1054285100412</v>
+        <v>3984997.17522767</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3735,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>53.43945274481129</v>
+        <v>1116403.3512156</v>
       </c>
       <c r="G95">
-        <v>300.7857115924076</v>
+        <v>4841664.31299405</v>
       </c>
       <c r="H95">
-        <v>2043.697469994886</v>
+        <v>3986255.60754329</v>
       </c>
       <c r="I95">
-        <v>403.4541396283576</v>
+        <v>1116841.549552847</v>
       </c>
       <c r="J95">
-        <v>50.54684852907541</v>
+        <v>4841275.558681069</v>
       </c>
       <c r="K95">
-        <v>334.3848786080923</v>
+        <v>3984710.173166152</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3770,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>52.64805592318555</v>
+        <v>1116402.716884901</v>
       </c>
       <c r="G96">
-        <v>311.9490364707285</v>
+        <v>4841680.825795617</v>
       </c>
       <c r="H96">
-        <v>2053.36038670885</v>
+        <v>3986264.547261493</v>
       </c>
       <c r="I96">
-        <v>469.3849030159012</v>
+        <v>1116919.906880619</v>
       </c>
       <c r="J96">
-        <v>4.952755433841816</v>
+        <v>4841226.907109438</v>
       </c>
       <c r="K96">
-        <v>33.58329425141791</v>
+        <v>3984408.022428839</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3805,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>51.8907995364134</v>
+        <v>1116402.109918889</v>
       </c>
       <c r="G97">
-        <v>323.1123613490493</v>
+        <v>4841697.338597182</v>
       </c>
       <c r="H97">
-        <v>2062.743670058812</v>
+        <v>3986273.228274839</v>
       </c>
       <c r="I97">
-        <v>536.9391507966723</v>
+        <v>1117000.193685499</v>
       </c>
       <c r="J97">
-        <v>-40.64133766139157</v>
+        <v>4841178.255537809</v>
       </c>
       <c r="K97">
-        <v>-282.2993245599812</v>
+        <v>3984090.723015731</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3840,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>51.16529807275802</v>
+        <v>1116401.528405496</v>
       </c>
       <c r="G98">
-        <v>334.2756862273702</v>
+        <v>4841713.851398749</v>
       </c>
       <c r="H98">
-        <v>2071.863050409965</v>
+        <v>3986281.665136392</v>
       </c>
       <c r="I98">
-        <v>606.1568597802769</v>
+        <v>1117082.457479088</v>
       </c>
       <c r="J98">
-        <v>-86.23543075662516</v>
+        <v>4841129.603966179</v>
       </c>
       <c r="K98">
-        <v>-613.262977826107</v>
+        <v>3983758.274926829</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3875,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>50.46939298513237</v>
+        <v>1116400.970614577</v>
       </c>
       <c r="G99">
-        <v>345.4390111056911</v>
+        <v>4841730.364200315</v>
       </c>
       <c r="H99">
-        <v>2080.732967026287</v>
+        <v>3986289.871204743</v>
       </c>
       <c r="I99">
-        <v>677.0789911684786</v>
+        <v>1117166.746942912</v>
       </c>
       <c r="J99">
-        <v>-131.8295238518588</v>
+        <v>4841080.952394549</v>
       </c>
       <c r="K99">
-        <v>-959.3076655469592</v>
+        <v>3983410.678162131</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3910,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>49.80112566747662</v>
+        <v>1116400.434976244</v>
       </c>
       <c r="G100">
-        <v>356.6023359840119</v>
+        <v>4841746.877001883</v>
       </c>
       <c r="H100">
-        <v>2089.366705608926</v>
+        <v>3986297.858771256</v>
       </c>
       <c r="I100">
-        <v>749.7475147949502</v>
+        <v>1117253.111957238</v>
       </c>
       <c r="J100">
-        <v>-177.4236169470924</v>
+        <v>4841032.300822919</v>
       </c>
       <c r="K100">
-        <v>-1320.433387722537</v>
+        <v>3983047.93272164</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3945,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>49.15871426162148</v>
+        <v>1116399.920062278</v>
       </c>
       <c r="G101">
-        <v>367.7656608623328</v>
+        <v>4841763.389803449</v>
       </c>
       <c r="H101">
-        <v>2097.776517994089</v>
+        <v>3986305.639170806</v>
       </c>
       <c r="I101">
-        <v>824.2054339619074</v>
+        <v>1117341.603630587</v>
       </c>
       <c r="J101">
-        <v>-223.0177100423255</v>
+        <v>4840983.64925129</v>
       </c>
       <c r="K101">
-        <v>-1696.640144352837</v>
+        <v>3982670.038605353</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3980,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>48.54053366920054</v>
+        <v>1116399.42457011</v>
       </c>
       <c r="G102">
-        <v>378.9289857406537</v>
+        <v>4841779.902605015</v>
       </c>
       <c r="H102">
-        <v>2105.97372671731</v>
+        <v>3986313.222878521</v>
       </c>
       <c r="I102">
-        <v>900.4968108883222</v>
+        <v>1117432.274329982</v>
       </c>
       <c r="J102">
-        <v>-268.6118031375591</v>
+        <v>4840934.99767966</v>
       </c>
       <c r="K102">
-        <v>-2087.927935437865</v>
+        <v>3982276.995813272</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4015,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>47.94509825809708</v>
+        <v>1116398.947308956</v>
       </c>
       <c r="G103">
-        <v>390.0923106189745</v>
+        <v>4841796.415406582</v>
       </c>
       <c r="H103">
-        <v>2113.968816683652</v>
+        <v>3986320.619594587</v>
       </c>
       <c r="I103">
-        <v>978.6667927847697</v>
+        <v>1117525.177711934</v>
       </c>
       <c r="J103">
-        <v>-314.2058962327927</v>
+        <v>4840886.34610803</v>
       </c>
       <c r="K103">
-        <v>-2494.29676097762</v>
+        <v>3981868.804345396</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4050,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>47.37104684447834</v>
+        <v>1116398.487187782</v>
       </c>
       <c r="G104">
-        <v>401.2556354972954</v>
+        <v>4841812.928208148</v>
       </c>
       <c r="H104">
-        <v>2121.77151580599</v>
+        <v>3986327.838318853</v>
       </c>
       <c r="I104">
-        <v>1058.761638570352</v>
+        <v>1117620.368754197</v>
       </c>
       <c r="J104">
-        <v>-359.7999893280263</v>
+        <v>4840837.6945364</v>
       </c>
       <c r="K104">
-        <v>-2915.7466209721</v>
+        <v>3981445.464201726</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4085,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>46.81712960486468</v>
+        <v>1116398.043204814</v>
       </c>
       <c r="G105">
-        <v>412.4189603756163</v>
+        <v>4841829.441009714</v>
       </c>
       <c r="H105">
-        <v>2129.390866167156</v>
+        <v>3986334.88741667</v>
       </c>
       <c r="I105">
-        <v>1140.828746247499</v>
+        <v>1117717.903788301</v>
       </c>
       <c r="J105">
-        <v>-405.3940824232599</v>
+        <v>4840789.04296477</v>
       </c>
       <c r="K105">
-        <v>-3352.277515421305</v>
+        <v>3981006.975382261</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4120,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>46.2821966318313</v>
+        <v>1116397.614438363</v>
       </c>
       <c r="G106">
-        <v>423.5822852539371</v>
+        <v>4841845.953811281</v>
       </c>
       <c r="H106">
-        <v>2136.835287011603</v>
+        <v>3986341.774677162</v>
       </c>
       <c r="I106">
-        <v>1224.916680950839</v>
+        <v>1117817.84053289</v>
       </c>
       <c r="J106">
-        <v>-450.9881755184931</v>
+        <v>4840740.391393141</v>
       </c>
       <c r="K106">
-        <v>-3803.889444325234</v>
+        <v>3980553.337887001</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4155,1886 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>45.76518789488051</v>
+        <v>1116397.20003878</v>
       </c>
       <c r="G107">
-        <v>434.7456101322579</v>
+        <v>4841862.466612848</v>
       </c>
       <c r="H107">
-        <v>2144.112630667098</v>
+        <v>3986348.50736497</v>
       </c>
       <c r="I107">
-        <v>1311.075203686768</v>
+        <v>1117920.238127874</v>
       </c>
       <c r="J107">
-        <v>-496.5822686137267</v>
+        <v>4840691.73982151</v>
       </c>
       <c r="K107">
-        <v>-4270.582407683891</v>
+        <v>3980084.551715947</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>76</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G108">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H108">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I108">
+        <v>1114861.227146794</v>
+      </c>
+      <c r="J108">
+        <v>4843222.129141279</v>
+      </c>
+      <c r="K108">
+        <v>3984362.727619175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>76</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G109">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H109">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I109">
+        <v>1114890.841139798</v>
+      </c>
+      <c r="J109">
+        <v>4843173.477564551</v>
+      </c>
+      <c r="K109">
+        <v>3984666.523032166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>76</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G110">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H110">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I110">
+        <v>1114921.184350134</v>
+      </c>
+      <c r="J110">
+        <v>4843124.825987821</v>
+      </c>
+      <c r="K110">
+        <v>3984955.169813317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>76</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G111">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H111">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I111">
+        <v>1114952.27473411</v>
+      </c>
+      <c r="J111">
+        <v>4843076.174411093</v>
+      </c>
+      <c r="K111">
+        <v>3985228.667962628</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>76</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G112">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H112">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I112">
+        <v>1114984.130690189</v>
+      </c>
+      <c r="J112">
+        <v>4843027.522834364</v>
+      </c>
+      <c r="K112">
+        <v>3985487.0174801</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>76</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G113">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H113">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I113">
+        <v>1115016.771069879</v>
+      </c>
+      <c r="J113">
+        <v>4842978.871257636</v>
+      </c>
+      <c r="K113">
+        <v>3985730.218365732</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>76</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G114">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H114">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I114">
+        <v>1115050.21518889</v>
+      </c>
+      <c r="J114">
+        <v>4842930.219680907</v>
+      </c>
+      <c r="K114">
+        <v>3985958.270619523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G115">
+        <v>4841113.15597812</v>
+      </c>
+      <c r="H115">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I115">
+        <v>1115084.482838564</v>
+      </c>
+      <c r="J115">
+        <v>4842881.568104179</v>
+      </c>
+      <c r="K115">
+        <v>3986171.174241475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>76</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116580.640943846</v>
+      </c>
+      <c r="G116">
+        <v>4841129.668758421</v>
+      </c>
+      <c r="H116">
+        <v>3985226.77392972</v>
+      </c>
+      <c r="I116">
+        <v>1115119.594297586</v>
+      </c>
+      <c r="J116">
+        <v>4842832.91652745</v>
+      </c>
+      <c r="K116">
+        <v>3986368.929231587</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>76</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.960286902</v>
+      </c>
+      <c r="G117">
+        <v>4841146.181538722</v>
+      </c>
+      <c r="H117">
+        <v>3985426.028258777</v>
+      </c>
+      <c r="I117">
+        <v>1115155.570343984</v>
+      </c>
+      <c r="J117">
+        <v>4842784.264950722</v>
+      </c>
+      <c r="K117">
+        <v>3986551.535589859</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>76</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116503.362843034</v>
+      </c>
+      <c r="G118">
+        <v>4841162.694319022</v>
+      </c>
+      <c r="H118">
+        <v>3985544.714327415</v>
+      </c>
+      <c r="I118">
+        <v>1115192.432267427</v>
+      </c>
+      <c r="J118">
+        <v>4842735.613373992</v>
+      </c>
+      <c r="K118">
+        <v>3986718.993316291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>76</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116485.31003845</v>
+      </c>
+      <c r="G119">
+        <v>4841179.207099323</v>
+      </c>
+      <c r="H119">
+        <v>3985629.531238987</v>
+      </c>
+      <c r="I119">
+        <v>1115230.201881823</v>
+      </c>
+      <c r="J119">
+        <v>4842686.961797263</v>
+      </c>
+      <c r="K119">
+        <v>3986871.302410882</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>76</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116472.720085813</v>
+      </c>
+      <c r="G120">
+        <v>4841195.719879624</v>
+      </c>
+      <c r="H120">
+        <v>3985695.578122587</v>
+      </c>
+      <c r="I120">
+        <v>1115268.901538226</v>
+      </c>
+      <c r="J120">
+        <v>4842638.310220535</v>
+      </c>
+      <c r="K120">
+        <v>3987008.462873635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>76</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116463.32760412</v>
+      </c>
+      <c r="G121">
+        <v>4841212.232659925</v>
+      </c>
+      <c r="H121">
+        <v>3985749.675643319</v>
+      </c>
+      <c r="I121">
+        <v>1115308.554138064</v>
+      </c>
+      <c r="J121">
+        <v>4842589.658643806</v>
+      </c>
+      <c r="K121">
+        <v>3987130.474704547</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>76</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.983995058</v>
+      </c>
+      <c r="G122">
+        <v>4841228.745440224</v>
+      </c>
+      <c r="H122">
+        <v>3985795.492294451</v>
+      </c>
+      <c r="I122">
+        <v>1115349.183146694</v>
+      </c>
+      <c r="J122">
+        <v>4842541.007067077</v>
+      </c>
+      <c r="K122">
+        <v>3987237.337903619</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>76</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116450.04248062</v>
+      </c>
+      <c r="G123">
+        <v>4841245.258220525</v>
+      </c>
+      <c r="H123">
+        <v>3985835.229894852</v>
+      </c>
+      <c r="I123">
+        <v>1115390.812607284</v>
+      </c>
+      <c r="J123">
+        <v>4842492.355490348</v>
+      </c>
+      <c r="K123">
+        <v>3987329.052470851</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>76</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116445.108906557</v>
+      </c>
+      <c r="G124">
+        <v>4841261.771000827</v>
+      </c>
+      <c r="H124">
+        <v>3985870.314263824</v>
+      </c>
+      <c r="I124">
+        <v>1115433.467155042</v>
+      </c>
+      <c r="J124">
+        <v>4842443.70391362</v>
+      </c>
+      <c r="K124">
+        <v>3987405.618406244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>76</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.928073744</v>
+      </c>
+      <c r="G125">
+        <v>4841278.283781127</v>
+      </c>
+      <c r="H125">
+        <v>3985901.721834043</v>
+      </c>
+      <c r="I125">
+        <v>1115477.172031797</v>
+      </c>
+      <c r="J125">
+        <v>4842395.052336891</v>
+      </c>
+      <c r="K125">
+        <v>3987467.035709796</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>76</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116437.326694159</v>
+      </c>
+      <c r="G126">
+        <v>4841294.796561427</v>
+      </c>
+      <c r="H126">
+        <v>3985930.150673319</v>
+      </c>
+      <c r="I126">
+        <v>1115521.953100935</v>
+      </c>
+      <c r="J126">
+        <v>4842346.400760162</v>
+      </c>
+      <c r="K126">
+        <v>3987513.304381509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>76</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116434.182503691</v>
+      </c>
+      <c r="G127">
+        <v>4841311.309341729</v>
+      </c>
+      <c r="H127">
+        <v>3985956.117171932</v>
+      </c>
+      <c r="I127">
+        <v>1115567.836862702</v>
+      </c>
+      <c r="J127">
+        <v>4842297.749183434</v>
+      </c>
+      <c r="K127">
+        <v>3987544.424421382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>76</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116431.406480681</v>
+      </c>
+      <c r="G128">
+        <v>4841327.822122029</v>
+      </c>
+      <c r="H128">
+        <v>3985980.014084497</v>
+      </c>
+      <c r="I128">
+        <v>1115614.85046989</v>
+      </c>
+      <c r="J128">
+        <v>4842249.097606706</v>
+      </c>
+      <c r="K128">
+        <v>3987560.395829414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>76</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.93208111</v>
+      </c>
+      <c r="G129">
+        <v>4841344.33490233</v>
+      </c>
+      <c r="H129">
+        <v>3986002.147097691</v>
+      </c>
+      <c r="I129">
+        <v>1115663.021743904</v>
+      </c>
+      <c r="J129">
+        <v>4842200.446029977</v>
+      </c>
+      <c r="K129">
+        <v>3987561.218605607</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>76</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116426.708442316</v>
+      </c>
+      <c r="G130">
+        <v>4841360.847682631</v>
+      </c>
+      <c r="H130">
+        <v>3986022.758804364</v>
+      </c>
+      <c r="I130">
+        <v>1115712.379191224</v>
+      </c>
+      <c r="J130">
+        <v>4842151.794453247</v>
+      </c>
+      <c r="K130">
+        <v>3987546.89274996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>76</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116424.695937059</v>
+      </c>
+      <c r="G131">
+        <v>4841377.360462931</v>
+      </c>
+      <c r="H131">
+        <v>3986042.044954848</v>
+      </c>
+      <c r="I131">
+        <v>1115762.952020275</v>
+      </c>
+      <c r="J131">
+        <v>4842103.142876519</v>
+      </c>
+      <c r="K131">
+        <v>3987517.418262472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>76</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116422.863175244</v>
+      </c>
+      <c r="G132">
+        <v>4841393.873243232</v>
+      </c>
+      <c r="H132">
+        <v>3986060.165790958</v>
+      </c>
+      <c r="I132">
+        <v>1115814.770158716</v>
+      </c>
+      <c r="J132">
+        <v>4842054.49129979</v>
+      </c>
+      <c r="K132">
+        <v>3987472.795143146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>76</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116421.184927907</v>
+      </c>
+      <c r="G133">
+        <v>4841410.386023533</v>
+      </c>
+      <c r="H133">
+        <v>3986077.25414667</v>
+      </c>
+      <c r="I133">
+        <v>1115867.864271145</v>
+      </c>
+      <c r="J133">
+        <v>4842005.839723061</v>
+      </c>
+      <c r="K133">
+        <v>3987413.023391979</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>76</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116419.64065624</v>
+      </c>
+      <c r="G134">
+        <v>4841426.898803833</v>
+      </c>
+      <c r="H134">
+        <v>3986093.421362886</v>
+      </c>
+      <c r="I134">
+        <v>1115922.265777246</v>
+      </c>
+      <c r="J134">
+        <v>4841957.188146332</v>
+      </c>
+      <c r="K134">
+        <v>3987338.103008972</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>76</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116418.213447909</v>
+      </c>
+      <c r="G135">
+        <v>4841443.411584134</v>
+      </c>
+      <c r="H135">
+        <v>3986108.76168798</v>
+      </c>
+      <c r="I135">
+        <v>1115978.006870386</v>
+      </c>
+      <c r="J135">
+        <v>4841908.536569604</v>
+      </c>
+      <c r="K135">
+        <v>3987248.033994126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>76</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.889233871</v>
+      </c>
+      <c r="G136">
+        <v>4841459.924364435</v>
+      </c>
+      <c r="H136">
+        <v>3986123.355606764</v>
+      </c>
+      <c r="I136">
+        <v>1116035.120536665</v>
+      </c>
+      <c r="J136">
+        <v>4841859.884992875</v>
+      </c>
+      <c r="K136">
+        <v>3987142.816347439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>76</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116415.656202318</v>
+      </c>
+      <c r="G137">
+        <v>4841476.437144736</v>
+      </c>
+      <c r="H137">
+        <v>3986137.272396491</v>
+      </c>
+      <c r="I137">
+        <v>1116093.640574431</v>
+      </c>
+      <c r="J137">
+        <v>4841811.233416146</v>
+      </c>
+      <c r="K137">
+        <v>3987022.450068912</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>76</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116414.50435372</v>
+      </c>
+      <c r="G138">
+        <v>4841492.949925036</v>
+      </c>
+      <c r="H138">
+        <v>3986150.572115758</v>
+      </c>
+      <c r="I138">
+        <v>1116153.60161429</v>
+      </c>
+      <c r="J138">
+        <v>4841762.581839417</v>
+      </c>
+      <c r="K138">
+        <v>3986886.935158546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>76</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116413.425158515</v>
+      </c>
+      <c r="G139">
+        <v>4841509.462705337</v>
+      </c>
+      <c r="H139">
+        <v>3986163.307170894</v>
+      </c>
+      <c r="I139">
+        <v>1116215.039139593</v>
+      </c>
+      <c r="J139">
+        <v>4841713.930262689</v>
+      </c>
+      <c r="K139">
+        <v>3986736.271616339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>76</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116412.411290604</v>
+      </c>
+      <c r="G140">
+        <v>4841525.975485638</v>
+      </c>
+      <c r="H140">
+        <v>3986175.52356317</v>
+      </c>
+      <c r="I140">
+        <v>1116277.989507435</v>
+      </c>
+      <c r="J140">
+        <v>4841665.278685961</v>
+      </c>
+      <c r="K140">
+        <v>3986570.459442292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>76</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116411.456417586</v>
+      </c>
+      <c r="G141">
+        <v>4841542.488265938</v>
+      </c>
+      <c r="H141">
+        <v>3986187.261891834</v>
+      </c>
+      <c r="I141">
+        <v>1116342.489970171</v>
+      </c>
+      <c r="J141">
+        <v>4841616.627109231</v>
+      </c>
+      <c r="K141">
+        <v>3986389.498636406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116410.555034002</v>
+      </c>
+      <c r="G142">
+        <v>4841559.001046238</v>
+      </c>
+      <c r="H142">
+        <v>3986198.558168169</v>
+      </c>
+      <c r="I142">
+        <v>1116408.578697463</v>
+      </c>
+      <c r="J142">
+        <v>4841567.975532503</v>
+      </c>
+      <c r="K142">
+        <v>3986193.38919868</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>76</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116409.702327534</v>
+      </c>
+      <c r="G143">
+        <v>4841575.51382654</v>
+      </c>
+      <c r="H143">
+        <v>3986209.444481762</v>
+      </c>
+      <c r="I143">
+        <v>1116476.294798864</v>
+      </c>
+      <c r="J143">
+        <v>4841519.323955774</v>
+      </c>
+      <c r="K143">
+        <v>3985982.131129114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>76</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.894070739</v>
+      </c>
+      <c r="G144">
+        <v>4841592.02660684</v>
+      </c>
+      <c r="H144">
+        <v>3986219.949550055</v>
+      </c>
+      <c r="I144">
+        <v>1116545.678346965</v>
+      </c>
+      <c r="J144">
+        <v>4841470.672379046</v>
+      </c>
+      <c r="K144">
+        <v>3985755.724427708</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>76</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116408.12653275</v>
+      </c>
+      <c r="G145">
+        <v>4841608.539387141</v>
+      </c>
+      <c r="H145">
+        <v>3986230.099174883</v>
+      </c>
+      <c r="I145">
+        <v>1116616.770401106</v>
+      </c>
+      <c r="J145">
+        <v>4841422.020802316</v>
+      </c>
+      <c r="K145">
+        <v>3985514.169094462</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116407.396406741</v>
+      </c>
+      <c r="G146">
+        <v>4841625.052167442</v>
+      </c>
+      <c r="H146">
+        <v>3986239.916624271</v>
+      </c>
+      <c r="I146">
+        <v>1116689.613031676</v>
+      </c>
+      <c r="J146">
+        <v>4841373.369225588</v>
+      </c>
+      <c r="K146">
+        <v>3985257.465129376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116406.700749923</v>
+      </c>
+      <c r="G147">
+        <v>4841641.564947742</v>
+      </c>
+      <c r="H147">
+        <v>3986249.422953716</v>
+      </c>
+      <c r="I147">
+        <v>1116764.24934501</v>
+      </c>
+      <c r="J147">
+        <v>4841324.717648859</v>
+      </c>
+      <c r="K147">
+        <v>3984985.61253245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116406.036933607</v>
+      </c>
+      <c r="G148">
+        <v>4841658.077728043</v>
+      </c>
+      <c r="H148">
+        <v>3986258.637278104</v>
+      </c>
+      <c r="I148">
+        <v>1116840.723508896</v>
+      </c>
+      <c r="J148">
+        <v>4841276.066072131</v>
+      </c>
+      <c r="K148">
+        <v>3984698.611303684</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116405.402601382</v>
+      </c>
+      <c r="G149">
+        <v>4841674.590508345</v>
+      </c>
+      <c r="H149">
+        <v>3986267.577003101</v>
+      </c>
+      <c r="I149">
+        <v>1116919.080778713</v>
+      </c>
+      <c r="J149">
+        <v>4841227.414495401</v>
+      </c>
+      <c r="K149">
+        <v>3984396.461443079</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>76</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116404.79563391</v>
+      </c>
+      <c r="G150">
+        <v>4841691.103288644</v>
+      </c>
+      <c r="H150">
+        <v>3986276.258023045</v>
+      </c>
+      <c r="I150">
+        <v>1116999.367524212</v>
+      </c>
+      <c r="J150">
+        <v>4841178.762918673</v>
+      </c>
+      <c r="K150">
+        <v>3984079.162950633</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>76</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116404.214119118</v>
+      </c>
+      <c r="G151">
+        <v>4841707.616068945</v>
+      </c>
+      <c r="H151">
+        <v>3986284.694891011</v>
+      </c>
+      <c r="I151">
+        <v>1117081.631256956</v>
+      </c>
+      <c r="J151">
+        <v>4841130.111341944</v>
+      </c>
+      <c r="K151">
+        <v>3983746.715826348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>76</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116403.656326857</v>
+      </c>
+      <c r="G152">
+        <v>4841724.128849246</v>
+      </c>
+      <c r="H152">
+        <v>3986292.900965599</v>
+      </c>
+      <c r="I152">
+        <v>1117165.920658438</v>
+      </c>
+      <c r="J152">
+        <v>4841081.459765214</v>
+      </c>
+      <c r="K152">
+        <v>3983399.120070222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>76</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116403.120687236</v>
+      </c>
+      <c r="G153">
+        <v>4841740.641629547</v>
+      </c>
+      <c r="H153">
+        <v>3986300.888538183</v>
+      </c>
+      <c r="I153">
+        <v>1117252.285608886</v>
+      </c>
+      <c r="J153">
+        <v>4841032.808188487</v>
+      </c>
+      <c r="K153">
+        <v>3983036.375682257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>76</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116402.605772031</v>
+      </c>
+      <c r="G154">
+        <v>4841757.154409847</v>
+      </c>
+      <c r="H154">
+        <v>3986308.668943646</v>
+      </c>
+      <c r="I154">
+        <v>1117340.777216785</v>
+      </c>
+      <c r="J154">
+        <v>4840984.156611758</v>
+      </c>
+      <c r="K154">
+        <v>3982658.482662452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>76</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116402.110278671</v>
+      </c>
+      <c r="G155">
+        <v>4841773.667190148</v>
+      </c>
+      <c r="H155">
+        <v>3986316.252657125</v>
+      </c>
+      <c r="I155">
+        <v>1117431.447849117</v>
+      </c>
+      <c r="J155">
+        <v>4840935.50503503</v>
+      </c>
+      <c r="K155">
+        <v>3982265.441010807</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>76</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116401.633016369</v>
+      </c>
+      <c r="G156">
+        <v>4841790.179970449</v>
+      </c>
+      <c r="H156">
+        <v>3986323.649378812</v>
+      </c>
+      <c r="I156">
+        <v>1117524.351162355</v>
+      </c>
+      <c r="J156">
+        <v>4840886.8534583</v>
+      </c>
+      <c r="K156">
+        <v>3981857.250727321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>76</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116401.172894088</v>
+      </c>
+      <c r="G157">
+        <v>4841806.69275075</v>
+      </c>
+      <c r="H157">
+        <v>3986330.868108565</v>
+      </c>
+      <c r="I157">
+        <v>1117619.542134213</v>
+      </c>
+      <c r="J157">
+        <v>4840838.201881572</v>
+      </c>
+      <c r="K157">
+        <v>3981433.911811997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>76</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116400.728910052</v>
+      </c>
+      <c r="G158">
+        <v>4841823.20553105</v>
+      </c>
+      <c r="H158">
+        <v>3986337.91721174</v>
+      </c>
+      <c r="I158">
+        <v>1117717.077096177</v>
+      </c>
+      <c r="J158">
+        <v>4840789.550304843</v>
+      </c>
+      <c r="K158">
+        <v>3980995.424264831</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>76</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116400.30014257</v>
+      </c>
+      <c r="G159">
+        <v>4841839.718311351</v>
+      </c>
+      <c r="H159">
+        <v>3986344.804477467</v>
+      </c>
+      <c r="I159">
+        <v>1117817.013766851</v>
+      </c>
+      <c r="J159">
+        <v>4840740.898728115</v>
+      </c>
+      <c r="K159">
+        <v>3980541.788085827</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>76</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.885741989</v>
+      </c>
+      <c r="G160">
+        <v>4841856.231091652</v>
+      </c>
+      <c r="H160">
+        <v>3986351.537170392</v>
+      </c>
+      <c r="I160">
+        <v>1117919.411286099</v>
+      </c>
+      <c r="J160">
+        <v>4840692.247151385</v>
+      </c>
+      <c r="K160">
+        <v>3980073.003274982</v>
       </c>
     </row>
   </sheetData>
